--- a/results/mp/deberta/corona/confidence/126/stop-words-desired-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-desired-0.1/avg_0.003_scores.xlsx
@@ -118,10 +118,10 @@
     <t>join</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>share</t>
   </si>
   <si>
     <t>safety</t>
@@ -1313,25 +1313,25 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.7665198237885462</v>
+        <v>0.7424242424242424</v>
       </c>
       <c r="L24">
-        <v>174</v>
+        <v>49</v>
       </c>
       <c r="M24">
-        <v>186</v>
+        <v>53</v>
       </c>
       <c r="N24">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="O24">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1339,25 +1339,25 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.7424242424242424</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L25">
-        <v>49</v>
+        <v>174</v>
       </c>
       <c r="M25">
-        <v>53</v>
+        <v>174</v>
       </c>
       <c r="N25">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1547,25 +1547,25 @@
         <v>43</v>
       </c>
       <c r="K33">
-        <v>0.6411042944785276</v>
+        <v>0.6147058823529412</v>
       </c>
       <c r="L33">
         <v>209</v>
       </c>
       <c r="M33">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="N33">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="10:17">
